--- a/excel.xlsx
+++ b/excel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,32 @@
   </si>
   <si>
     <t>questions</t>
+  </si>
+  <si>
+    <t>505be3dc-3b87-4090-9b81-bfb5929db089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  dqdqsdqsdsqds
+•  dsqdqdqsqsd
+</t>
+  </si>
+  <si>
+    <t>de63043e-7064-4b84-8304-58ce7fcda29e</t>
+  </si>
+  <si>
+    <t>dsdq</t>
+  </si>
+  <si>
+    <t>djd</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  23
+•  12
+•  12
+</t>
   </si>
 </sst>
 </file>
@@ -124,8 +150,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,6 +309,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="533400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="533400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
@@ -336,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="4.61328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.3125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.50390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.08984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.62109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="54.78515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="16.96875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="6.48046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -375,7 +518,50 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="23">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="G3"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>